--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.12883709121775</v>
+        <v>0.1448543333333333</v>
       </c>
       <c r="H2">
-        <v>0.12883709121775</v>
+        <v>0.434563</v>
       </c>
       <c r="I2">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137001</v>
       </c>
       <c r="J2">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45170379307354</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N2">
-        <v>1.45170379307354</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q2">
-        <v>0.1870332940093693</v>
+        <v>0.3594544830537777</v>
       </c>
       <c r="R2">
-        <v>0.1870332940093693</v>
+        <v>3.235090347484</v>
       </c>
       <c r="S2">
-        <v>0.001115631129242075</v>
+        <v>0.001762214527799654</v>
       </c>
       <c r="T2">
-        <v>0.001115631129242075</v>
+        <v>0.001762214527799654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.12883709121775</v>
+        <v>0.1448543333333333</v>
       </c>
       <c r="H3">
-        <v>0.12883709121775</v>
+        <v>0.434563</v>
       </c>
       <c r="I3">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137001</v>
       </c>
       <c r="J3">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20742042878663</v>
+        <v>7.245227</v>
       </c>
       <c r="N3">
-        <v>7.20742042878663</v>
+        <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q3">
-        <v>0.9285830832282579</v>
+        <v>1.049502526933667</v>
       </c>
       <c r="R3">
-        <v>0.9285830832282579</v>
+        <v>9.445522742403</v>
       </c>
       <c r="S3">
-        <v>0.005538886534742489</v>
+        <v>0.00514515380142932</v>
       </c>
       <c r="T3">
-        <v>0.005538886534742489</v>
+        <v>0.005145153801429318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.12883709121775</v>
+        <v>0.1448543333333333</v>
       </c>
       <c r="H4">
-        <v>0.12883709121775</v>
+        <v>0.434563</v>
       </c>
       <c r="I4">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137001</v>
       </c>
       <c r="J4">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.641192516667742</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N4">
-        <v>0.641192516667742</v>
+        <v>0.600563</v>
       </c>
       <c r="O4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q4">
-        <v>0.08260937875806057</v>
+        <v>0.02899805099655555</v>
       </c>
       <c r="R4">
-        <v>0.08260937875806057</v>
+        <v>0.260982458969</v>
       </c>
       <c r="S4">
-        <v>0.0004927550198908681</v>
+        <v>0.0001421620515339637</v>
       </c>
       <c r="T4">
-        <v>0.0004927550198908681</v>
+        <v>0.0001421620515339637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.7714334613835</v>
+        <v>0.1448543333333333</v>
       </c>
       <c r="H5">
-        <v>13.7714334613835</v>
+        <v>0.434563</v>
       </c>
       <c r="I5">
-        <v>0.7639740176219829</v>
+        <v>0.007514552731137001</v>
       </c>
       <c r="J5">
-        <v>0.7639740176219829</v>
+        <v>0.007514552731137</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45170379307354</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N5">
-        <v>1.45170379307354</v>
+        <v>1.964485</v>
       </c>
       <c r="O5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q5">
-        <v>19.9920421919503</v>
+        <v>0.09485472167277778</v>
       </c>
       <c r="R5">
-        <v>19.9920421919503</v>
+        <v>0.8536924950550001</v>
       </c>
       <c r="S5">
-        <v>0.1192501299011684</v>
+        <v>0.0004650223503740636</v>
       </c>
       <c r="T5">
-        <v>0.1192501299011684</v>
+        <v>0.0004650223503740635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.7714334613835</v>
+        <v>14.494489</v>
       </c>
       <c r="H6">
-        <v>13.7714334613835</v>
+        <v>43.483467</v>
       </c>
       <c r="I6">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625467</v>
       </c>
       <c r="J6">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625465</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.20742042878663</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N6">
-        <v>7.20742042878663</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q6">
-        <v>99.25651086325121</v>
+        <v>35.96791984561733</v>
       </c>
       <c r="R6">
-        <v>99.25651086325121</v>
+        <v>323.711278610556</v>
       </c>
       <c r="S6">
-        <v>0.5920531629702788</v>
+        <v>0.1763316188136055</v>
       </c>
       <c r="T6">
-        <v>0.5920531629702788</v>
+        <v>0.1763316188136055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.7714334613835</v>
+        <v>14.494489</v>
       </c>
       <c r="H7">
-        <v>13.7714334613835</v>
+        <v>43.483467</v>
       </c>
       <c r="I7">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625467</v>
       </c>
       <c r="J7">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625465</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.641192516667742</v>
+        <v>7.245227</v>
       </c>
       <c r="N7">
-        <v>0.641192516667742</v>
+        <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q7">
-        <v>8.83014007922684</v>
+        <v>105.015863054003</v>
       </c>
       <c r="R7">
-        <v>8.83014007922684</v>
+        <v>945.1427674860271</v>
       </c>
       <c r="S7">
-        <v>0.05267072475053588</v>
+        <v>0.5148370329143908</v>
       </c>
       <c r="T7">
-        <v>0.05267072475053588</v>
+        <v>0.5148370329143905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.12577895134622</v>
+        <v>14.494489</v>
       </c>
       <c r="H8">
-        <v>4.12577895134622</v>
+        <v>43.483467</v>
       </c>
       <c r="I8">
-        <v>0.2288787096941417</v>
+        <v>0.7519250504625467</v>
       </c>
       <c r="J8">
-        <v>0.2288787096941417</v>
+        <v>0.7519250504625465</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.45170379307354</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N8">
-        <v>1.45170379307354</v>
+        <v>0.600563</v>
       </c>
       <c r="O8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q8">
-        <v>5.98940895305228</v>
+        <v>2.901617932435667</v>
       </c>
       <c r="R8">
-        <v>5.98940895305228</v>
+        <v>26.114561391921</v>
       </c>
       <c r="S8">
-        <v>0.03572610485837659</v>
+        <v>0.01422509251024457</v>
       </c>
       <c r="T8">
-        <v>0.03572610485837659</v>
+        <v>0.01422509251024457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.12577895134622</v>
+        <v>14.494489</v>
       </c>
       <c r="H9">
-        <v>4.12577895134622</v>
+        <v>43.483467</v>
       </c>
       <c r="I9">
-        <v>0.2288787096941417</v>
+        <v>0.7519250504625467</v>
       </c>
       <c r="J9">
-        <v>0.2288787096941417</v>
+        <v>0.7519250504625465</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.20742042878663</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N9">
-        <v>7.20742042878663</v>
+        <v>1.964485</v>
       </c>
       <c r="O9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q9">
-        <v>29.73622349859063</v>
+        <v>9.491402074388334</v>
       </c>
       <c r="R9">
-        <v>29.73622349859063</v>
+        <v>85.42261866949501</v>
       </c>
       <c r="S9">
-        <v>0.1773730007635192</v>
+        <v>0.04653130622430587</v>
       </c>
       <c r="T9">
-        <v>0.1773730007635192</v>
+        <v>0.04653130622430586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.091182</v>
+      </c>
+      <c r="H10">
+        <v>0.273546</v>
+      </c>
+      <c r="I10">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="J10">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N10">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P10">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q10">
+        <v>0.226267160392</v>
+      </c>
+      <c r="R10">
+        <v>2.036404443528</v>
+      </c>
+      <c r="S10">
+        <v>0.001109267782166186</v>
+      </c>
+      <c r="T10">
+        <v>0.001109267782166186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.091182</v>
+      </c>
+      <c r="H11">
+        <v>0.273546</v>
+      </c>
+      <c r="I11">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="J11">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.245227</v>
+      </c>
+      <c r="N11">
+        <v>21.735681</v>
+      </c>
+      <c r="O11">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P11">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q11">
+        <v>0.660634288314</v>
+      </c>
+      <c r="R11">
+        <v>5.945708594826</v>
+      </c>
+      <c r="S11">
+        <v>0.003238739243253072</v>
+      </c>
+      <c r="T11">
+        <v>0.003238739243253071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.091182</v>
+      </c>
+      <c r="H12">
+        <v>0.273546</v>
+      </c>
+      <c r="I12">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="J12">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.600563</v>
+      </c>
+      <c r="O12">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P12">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q12">
+        <v>0.018253511822</v>
+      </c>
+      <c r="R12">
+        <v>0.164281606398</v>
+      </c>
+      <c r="S12">
+        <v>8.948727928726018E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.948727928726017E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.091182</v>
+      </c>
+      <c r="H13">
+        <v>0.273546</v>
+      </c>
+      <c r="I13">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="J13">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.964485</v>
+      </c>
+      <c r="O13">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P13">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q13">
+        <v>0.05970855709</v>
+      </c>
+      <c r="R13">
+        <v>0.53737701381</v>
+      </c>
+      <c r="S13">
+        <v>0.000292719361416926</v>
+      </c>
+      <c r="T13">
+        <v>0.0002927193614169259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="H14">
+        <v>13.637947</v>
+      </c>
+      <c r="I14">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="J14">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P14">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q14">
+        <v>11.28080666968844</v>
+      </c>
+      <c r="R14">
+        <v>101.527260027196</v>
+      </c>
+      <c r="S14">
+        <v>0.05530380711832741</v>
+      </c>
+      <c r="T14">
+        <v>0.05530380711832739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="H15">
+        <v>13.637947</v>
+      </c>
+      <c r="I15">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="J15">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.245227</v>
+      </c>
+      <c r="N15">
+        <v>21.735681</v>
+      </c>
+      <c r="O15">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P15">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q15">
+        <v>32.93667394298967</v>
+      </c>
+      <c r="R15">
+        <v>296.430065486907</v>
+      </c>
+      <c r="S15">
+        <v>0.1614710291735412</v>
+      </c>
+      <c r="T15">
+        <v>0.1614710291735411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4.12577895134622</v>
-      </c>
-      <c r="H10">
-        <v>4.12577895134622</v>
-      </c>
-      <c r="I10">
-        <v>0.2288787096941417</v>
-      </c>
-      <c r="J10">
-        <v>0.2288787096941417</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.641192516667742</v>
-      </c>
-      <c r="N10">
-        <v>0.641192516667742</v>
-      </c>
-      <c r="O10">
-        <v>0.0689430838426727</v>
-      </c>
-      <c r="P10">
-        <v>0.0689430838426727</v>
-      </c>
-      <c r="Q10">
-        <v>2.64541858902848</v>
-      </c>
-      <c r="R10">
-        <v>2.64541858902848</v>
-      </c>
-      <c r="S10">
-        <v>0.01577960407224595</v>
-      </c>
-      <c r="T10">
-        <v>0.01577960407224595</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="H16">
+        <v>13.637947</v>
+      </c>
+      <c r="I16">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="J16">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.600563</v>
+      </c>
+      <c r="O16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q16">
+        <v>0.9100495960178889</v>
+      </c>
+      <c r="R16">
+        <v>8.190446364161</v>
+      </c>
+      <c r="S16">
+        <v>0.004461490104384097</v>
+      </c>
+      <c r="T16">
+        <v>0.004461490104384095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="H17">
+        <v>13.637947</v>
+      </c>
+      <c r="I17">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="J17">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.964485</v>
+      </c>
+      <c r="O17">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P17">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q17">
+        <v>2.976838034699445</v>
+      </c>
+      <c r="R17">
+        <v>26.791542312295</v>
+      </c>
+      <c r="S17">
+        <v>0.01459385674394026</v>
+      </c>
+      <c r="T17">
+        <v>0.01459385674394025</v>
       </c>
     </row>
   </sheetData>
